--- a/output_baku/non_existing_flights.xlsx
+++ b/output_baku/non_existing_flights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="640">
   <si>
     <t>iata</t>
   </si>
@@ -58,9 +58,6 @@
     <t>RBA</t>
   </si>
   <si>
-    <t>CDG</t>
-  </si>
-  <si>
     <t>JFK</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>SCL</t>
   </si>
   <si>
-    <t>TAS</t>
-  </si>
-  <si>
     <t>COO</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>NAS</t>
   </si>
   <si>
-    <t>THR</t>
-  </si>
-  <si>
     <t>CXI</t>
   </si>
   <si>
@@ -475,9 +466,6 @@
     <t>ZSA</t>
   </si>
   <si>
-    <t>NCE</t>
-  </si>
-  <si>
     <t>SKP</t>
   </si>
   <si>
@@ -538,9 +526,6 @@
     <t>GMME</t>
   </si>
   <si>
-    <t>LFPG</t>
-  </si>
-  <si>
     <t>KJFK</t>
   </si>
   <si>
@@ -622,9 +607,6 @@
     <t>SCEL</t>
   </si>
   <si>
-    <t>UTTT</t>
-  </si>
-  <si>
     <t>DBBB</t>
   </si>
   <si>
@@ -844,9 +826,6 @@
     <t>MYNN</t>
   </si>
   <si>
-    <t>OIII</t>
-  </si>
-  <si>
     <t>PLCH</t>
   </si>
   <si>
@@ -955,9 +934,6 @@
     <t>MYSM</t>
   </si>
   <si>
-    <t>LFMN</t>
-  </si>
-  <si>
     <t>LWSK</t>
   </si>
   <si>
@@ -1018,9 +994,6 @@
     <t>MA</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -1102,9 +1075,6 @@
     <t>CL</t>
   </si>
   <si>
-    <t>UZ</t>
-  </si>
-  <si>
     <t>BJ</t>
   </si>
   <si>
@@ -1324,69 +1294,69 @@
     <t>BS</t>
   </si>
   <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
     <t>IR</t>
   </si>
   <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>HT</t>
   </si>
   <si>
@@ -1480,9 +1450,6 @@
     <t>Rabat-Sale Airport</t>
   </si>
   <si>
-    <t>Paris Charles de Gaulle Airport</t>
-  </si>
-  <si>
     <t>John F. Kennedy International Airport</t>
   </si>
   <si>
@@ -1567,9 +1534,6 @@
     <t>Arturo Merino Benítez International Airport</t>
   </si>
   <si>
-    <t>Tashkent International Airport</t>
-  </si>
-  <si>
     <t>Cadjehoun Airport</t>
   </si>
   <si>
@@ -1810,9 +1774,6 @@
     <t>Lynden Pindling International Airport</t>
   </si>
   <si>
-    <t>Mehrabad International Airport</t>
-  </si>
-  <si>
     <t>Cassidy International Airport</t>
   </si>
   <si>
@@ -1925,9 +1886,6 @@
   </si>
   <si>
     <t>San Salvador Airport (Cockburn Town Airport)</t>
-  </si>
-  <si>
-    <t>Nice Cote d'Azur Airport</t>
   </si>
   <si>
     <t>Skopje Alexander the Great Airport</t>
@@ -2333,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2373,16 +2331,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2">
         <v>3643</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F2">
         <v>-23.4262</v>
@@ -2402,16 +2360,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>1549</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F3">
         <v>6.57737</v>
@@ -2431,16 +2389,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>1615</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F4">
         <v>-6.12556</v>
@@ -2460,16 +2418,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5">
         <v>2306</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F5">
         <v>35.5533</v>
@@ -2489,16 +2447,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>861</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F6">
         <v>34.0515</v>
@@ -2518,25 +2476,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>1614</v>
+        <v>8220</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F7">
-        <v>49.0097</v>
+        <v>40.6397</v>
       </c>
       <c r="G7">
-        <v>2.54778</v>
+        <v>-73.77889999999999</v>
       </c>
       <c r="H7">
-        <v>3813.218422547855</v>
+        <v>9383.682266065507</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2547,25 +2505,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8">
-        <v>8220</v>
+        <v>798</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F8">
-        <v>40.6397</v>
+        <v>-1.31924</v>
       </c>
       <c r="G8">
-        <v>-73.77889999999999</v>
+        <v>36.9278</v>
       </c>
       <c r="H8">
-        <v>9383.682266065507</v>
+        <v>4815.384588676564</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -2576,25 +2534,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F9">
-        <v>-1.31924</v>
+        <v>-6.87811</v>
       </c>
       <c r="G9">
-        <v>36.9278</v>
+        <v>39.2026</v>
       </c>
       <c r="H9">
-        <v>4815.384588676564</v>
+        <v>5358.730030202788</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2605,25 +2563,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10">
-        <v>785</v>
+        <v>1368</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F10">
-        <v>-6.87811</v>
+        <v>45.3225</v>
       </c>
       <c r="G10">
-        <v>39.2026</v>
+        <v>-75.6692</v>
       </c>
       <c r="H10">
-        <v>5358.730030202788</v>
+        <v>9076.534680744211</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2634,25 +2592,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C11">
-        <v>1368</v>
+        <v>819</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F11">
-        <v>45.3225</v>
+        <v>2.74558</v>
       </c>
       <c r="G11">
-        <v>-75.6692</v>
+        <v>101.71</v>
       </c>
       <c r="H11">
-        <v>9076.534680744211</v>
+        <v>6649.756799452458</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -2663,25 +2621,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C12">
-        <v>819</v>
+        <v>640</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F12">
-        <v>2.74558</v>
+        <v>5.60519</v>
       </c>
       <c r="G12">
-        <v>101.71</v>
+        <v>-0.166786</v>
       </c>
       <c r="H12">
-        <v>6649.756799452458</v>
+        <v>6310.706120448484</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -2692,25 +2650,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F13">
-        <v>5.60519</v>
+        <v>0.042386</v>
       </c>
       <c r="G13">
-        <v>-0.166786</v>
+        <v>32.4435</v>
       </c>
       <c r="H13">
-        <v>6310.706120448484</v>
+        <v>4818.635066216429</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2721,25 +2679,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F14">
-        <v>0.042386</v>
+        <v>-4.38575</v>
       </c>
       <c r="G14">
-        <v>32.4435</v>
+        <v>15.4446</v>
       </c>
       <c r="H14">
-        <v>4818.635066216429</v>
+        <v>6092.616788299869</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2750,25 +2708,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C15">
-        <v>609</v>
+        <v>705</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F15">
-        <v>-4.38575</v>
+        <v>30.1219</v>
       </c>
       <c r="G15">
-        <v>15.4446</v>
+        <v>31.4056</v>
       </c>
       <c r="H15">
-        <v>6092.616788299869</v>
+        <v>2040.673883815191</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -2779,25 +2737,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16">
-        <v>705</v>
+        <v>568</v>
       </c>
       <c r="D16" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E16" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F16">
-        <v>30.1219</v>
+        <v>14.7397</v>
       </c>
       <c r="G16">
-        <v>31.4056</v>
+        <v>-17.4902</v>
       </c>
       <c r="H16">
-        <v>2040.673883815191</v>
+        <v>7067.514688019302</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -2808,25 +2766,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F17">
-        <v>14.7397</v>
+        <v>12.1337</v>
       </c>
       <c r="G17">
-        <v>-17.4902</v>
+        <v>15.034</v>
       </c>
       <c r="H17">
-        <v>7067.514688019302</v>
+        <v>4643.885164991415</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2837,25 +2795,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C18">
-        <v>558</v>
+        <v>1133</v>
       </c>
       <c r="D18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E18" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F18">
-        <v>12.1337</v>
+        <v>41.8003</v>
       </c>
       <c r="G18">
-        <v>15.034</v>
+        <v>12.2389</v>
       </c>
       <c r="H18">
-        <v>4643.885164991415</v>
+        <v>3152.269441339329</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2866,25 +2824,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C19">
-        <v>1133</v>
+        <v>1664</v>
       </c>
       <c r="D19" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F19">
-        <v>41.8003</v>
+        <v>52.3514</v>
       </c>
       <c r="G19">
-        <v>12.2389</v>
+        <v>13.4939</v>
       </c>
       <c r="H19">
-        <v>3152.269441339329</v>
+        <v>3062.6708359906</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2895,25 +2853,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C20">
-        <v>1664</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E20" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F20">
-        <v>52.3514</v>
+        <v>-15.3308</v>
       </c>
       <c r="G20">
-        <v>13.4939</v>
+        <v>28.4526</v>
       </c>
       <c r="H20">
-        <v>3062.6708359906</v>
+        <v>6568.630522293804</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2924,25 +2882,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C21">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D21" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E21" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F21">
-        <v>-15.3308</v>
+        <v>31.7226</v>
       </c>
       <c r="G21">
-        <v>28.4526</v>
+        <v>35.9932</v>
       </c>
       <c r="H21">
-        <v>6568.630522293804</v>
+        <v>1591.355218735145</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2953,25 +2911,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C22">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="D22" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E22" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F22">
-        <v>31.7226</v>
+        <v>33.2625</v>
       </c>
       <c r="G22">
-        <v>35.9932</v>
+        <v>44.2346</v>
       </c>
       <c r="H22">
-        <v>1591.355218735145</v>
+        <v>952.3031350869112</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2982,25 +2940,25 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C23">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E23" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F23">
-        <v>33.2625</v>
+        <v>-26.1392</v>
       </c>
       <c r="G23">
-        <v>44.2346</v>
+        <v>28.246</v>
       </c>
       <c r="H23">
-        <v>952.3031350869112</v>
+        <v>7711.493005957715</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -3011,25 +2969,25 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C24">
-        <v>529</v>
+        <v>900</v>
       </c>
       <c r="D24" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E24" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F24">
-        <v>-26.1392</v>
+        <v>-33.9461</v>
       </c>
       <c r="G24">
-        <v>28.246</v>
+        <v>151.177</v>
       </c>
       <c r="H24">
-        <v>7711.493005957715</v>
+        <v>13218.3607885306</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -3040,25 +2998,25 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C25">
-        <v>900</v>
+        <v>469</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F25">
-        <v>-33.9461</v>
+        <v>51.0222</v>
       </c>
       <c r="G25">
-        <v>151.177</v>
+        <v>71.4669</v>
       </c>
       <c r="H25">
-        <v>13218.3607885306</v>
+        <v>2026.14848500678</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -3069,25 +3027,25 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C26">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E26" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F26">
-        <v>51.0222</v>
+        <v>5.26139</v>
       </c>
       <c r="G26">
-        <v>71.4669</v>
+        <v>-3.92629</v>
       </c>
       <c r="H26">
-        <v>2026.14848500678</v>
+        <v>6632.468782243892</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -3098,25 +3056,25 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C27">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F27">
-        <v>5.26139</v>
+        <v>23.5933</v>
       </c>
       <c r="G27">
-        <v>-3.92629</v>
+        <v>58.2844</v>
       </c>
       <c r="H27">
-        <v>6632.468782243892</v>
+        <v>2024.111712880772</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -3127,25 +3085,25 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C28">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="D28" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E28" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F28">
-        <v>23.5933</v>
+        <v>4.70159</v>
       </c>
       <c r="G28">
-        <v>58.2844</v>
+        <v>-74.1469</v>
       </c>
       <c r="H28">
-        <v>2024.111712880772</v>
+        <v>12453.99324501486</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -3156,25 +3114,25 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C29">
-        <v>479</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F29">
-        <v>4.70159</v>
+        <v>2.01444</v>
       </c>
       <c r="G29">
-        <v>-74.1469</v>
+        <v>45.3047</v>
       </c>
       <c r="H29">
-        <v>12453.99324501486</v>
+        <v>4285.477880379504</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -3185,25 +3143,25 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30">
-        <v>369</v>
+        <v>460</v>
       </c>
       <c r="D30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F30">
-        <v>2.01444</v>
+        <v>14.5086</v>
       </c>
       <c r="G30">
-        <v>45.3047</v>
+        <v>121.02</v>
       </c>
       <c r="H30">
-        <v>4285.477880379504</v>
+        <v>7374.573488113462</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -3214,25 +3172,25 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C31">
-        <v>460</v>
+        <v>345</v>
       </c>
       <c r="D31" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F31">
-        <v>14.5086</v>
+        <v>-17.9318</v>
       </c>
       <c r="G31">
-        <v>121.02</v>
+        <v>31.0928</v>
       </c>
       <c r="H31">
-        <v>7374.573488113462</v>
+        <v>6756.557935677699</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -3243,25 +3201,25 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C32">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="D32" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F32">
-        <v>-17.9318</v>
+        <v>-13.7894</v>
       </c>
       <c r="G32">
-        <v>31.0928</v>
+        <v>33.781</v>
       </c>
       <c r="H32">
-        <v>6756.557935677699</v>
+        <v>6237.352198326496</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3272,25 +3230,25 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C33">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F33">
-        <v>-13.7894</v>
+        <v>-33.393</v>
       </c>
       <c r="G33">
-        <v>33.781</v>
+        <v>-70.78579999999999</v>
       </c>
       <c r="H33">
-        <v>6237.352198326496</v>
+        <v>14791.50321428144</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -3298,28 +3256,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C34">
         <v>389</v>
       </c>
       <c r="D34" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F34">
-        <v>-33.393</v>
+        <v>-33.3928</v>
       </c>
       <c r="G34">
-        <v>-70.78579999999999</v>
+        <v>-70.7856</v>
       </c>
       <c r="H34">
-        <v>14791.50321428144</v>
+        <v>14791.47666625915</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -3330,25 +3288,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C35">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F35">
-        <v>-33.3928</v>
+        <v>6.35723</v>
       </c>
       <c r="G35">
-        <v>-70.7856</v>
+        <v>2.38435</v>
       </c>
       <c r="H35">
-        <v>14791.47666625915</v>
+        <v>6054.241645035918</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3359,25 +3317,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C36">
-        <v>322</v>
+        <v>438</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F36">
-        <v>41.2579</v>
+        <v>13.6811</v>
       </c>
       <c r="G36">
-        <v>69.2812</v>
+        <v>100.747</v>
       </c>
       <c r="H36">
-        <v>1620.709863399921</v>
+        <v>5735.625452199477</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -3388,25 +3346,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C37">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D37" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F37">
-        <v>6.35723</v>
+        <v>-8.858370000000001</v>
       </c>
       <c r="G37">
-        <v>2.38435</v>
+        <v>13.2312</v>
       </c>
       <c r="H37">
-        <v>6054.241645035918</v>
+        <v>6641.783414458033</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -3417,25 +3375,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="D38" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F38">
-        <v>13.6811</v>
+        <v>18.31</v>
       </c>
       <c r="G38">
-        <v>100.747</v>
+        <v>-15.9697</v>
       </c>
       <c r="H38">
-        <v>5735.625452199477</v>
+        <v>6698.552715183237</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -3446,25 +3404,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C39">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F39">
-        <v>-8.858370000000001</v>
+        <v>-4.2517</v>
       </c>
       <c r="G39">
-        <v>13.2312</v>
+        <v>15.253</v>
       </c>
       <c r="H39">
-        <v>6641.783414458033</v>
+        <v>6091.364505397844</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -3472,28 +3430,28 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C40">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F40">
-        <v>18.31</v>
+        <v>-4.25167</v>
       </c>
       <c r="G40">
-        <v>-15.9697</v>
+        <v>15.2531</v>
       </c>
       <c r="H40">
-        <v>6698.552715183237</v>
+        <v>6091.355783123159</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -3501,28 +3459,28 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C41">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D41" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F41">
-        <v>-4.2517</v>
+        <v>8.977779999999999</v>
       </c>
       <c r="G41">
-        <v>15.253</v>
+        <v>38.7994</v>
       </c>
       <c r="H41">
-        <v>6091.364505397844</v>
+        <v>3662.082735458985</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -3530,28 +3488,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C42">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E42" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F42">
-        <v>-4.25167</v>
+        <v>8.97789</v>
       </c>
       <c r="G42">
-        <v>15.2531</v>
+        <v>38.7993</v>
       </c>
       <c r="H42">
-        <v>6091.355783123159</v>
+        <v>3662.074042843888</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -3559,28 +3517,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C43">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="D43" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E43" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F43">
-        <v>8.977779999999999</v>
+        <v>55.6179</v>
       </c>
       <c r="G43">
-        <v>38.7994</v>
+        <v>12.656</v>
       </c>
       <c r="H43">
-        <v>3662.082735458985</v>
+        <v>3200.50436457933</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -3591,25 +3549,25 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C44">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E44" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F44">
-        <v>8.97789</v>
+        <v>59.6519</v>
       </c>
       <c r="G44">
-        <v>38.7993</v>
+        <v>17.9186</v>
       </c>
       <c r="H44">
-        <v>3662.074042843888</v>
+        <v>3082.571465707116</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -3620,25 +3578,25 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C45">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F45">
-        <v>55.6179</v>
+        <v>6.16561</v>
       </c>
       <c r="G45">
-        <v>12.656</v>
+        <v>1.25451</v>
       </c>
       <c r="H45">
-        <v>3200.50436457933</v>
+        <v>6156.377257044085</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -3649,25 +3607,25 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C46">
-        <v>427</v>
+        <v>661</v>
       </c>
       <c r="D46" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F46">
-        <v>59.6519</v>
+        <v>40.4719</v>
       </c>
       <c r="G46">
-        <v>17.9186</v>
+        <v>-3.56264</v>
       </c>
       <c r="H46">
-        <v>3082.571465707116</v>
+        <v>4473.197929689529</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -3678,25 +3636,25 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C47">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F47">
-        <v>6.16561</v>
+        <v>27.6966</v>
       </c>
       <c r="G47">
-        <v>1.25451</v>
+        <v>85.3591</v>
       </c>
       <c r="H47">
-        <v>6156.377257044085</v>
+        <v>3523.630430712309</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3707,25 +3665,25 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C48">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F48">
-        <v>40.4719</v>
+        <v>13.338</v>
       </c>
       <c r="G48">
-        <v>-3.56264</v>
+        <v>-16.6522</v>
       </c>
       <c r="H48">
-        <v>4473.197929689529</v>
+        <v>7092.972177725471</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3736,25 +3694,25 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C49">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F49">
-        <v>27.6966</v>
+        <v>33.5607</v>
       </c>
       <c r="G49">
-        <v>85.3591</v>
+        <v>72.8516</v>
       </c>
       <c r="H49">
-        <v>3523.630430712309</v>
+        <v>2161.736759448105</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -3765,25 +3723,25 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F50">
-        <v>13.338</v>
+        <v>42.6967</v>
       </c>
       <c r="G50">
-        <v>-16.6522</v>
+        <v>23.4114</v>
       </c>
       <c r="H50">
-        <v>7092.972177725471</v>
+        <v>2225.568456160595</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3794,25 +3752,25 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C51">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E51" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F51">
-        <v>33.5607</v>
+        <v>7.18076</v>
       </c>
       <c r="G51">
-        <v>72.8516</v>
+        <v>79.8841</v>
       </c>
       <c r="H51">
-        <v>2161.736759448105</v>
+        <v>4731.243713329512</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3823,25 +3781,25 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E52" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F52">
-        <v>42.6967</v>
+        <v>-1.96863</v>
       </c>
       <c r="G52">
-        <v>23.4114</v>
+        <v>30.1395</v>
       </c>
       <c r="H52">
-        <v>2225.568456160595</v>
+        <v>5116.471687299284</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3852,25 +3810,25 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C53">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F53">
-        <v>7.18076</v>
+        <v>36.851</v>
       </c>
       <c r="G53">
-        <v>79.8841</v>
+        <v>10.2272</v>
       </c>
       <c r="H53">
-        <v>4731.243713329512</v>
+        <v>3459.602429537337</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3878,28 +3836,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C54">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F54">
-        <v>-1.96863</v>
+        <v>36.8511</v>
       </c>
       <c r="G54">
-        <v>30.1395</v>
+        <v>10.2272</v>
       </c>
       <c r="H54">
-        <v>5116.471687299284</v>
+        <v>3459.598799005875</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -3907,28 +3865,25 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C55">
-        <v>235</v>
-      </c>
-      <c r="D55" t="s">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="E55" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F55">
-        <v>36.851</v>
+        <v>-22.4799</v>
       </c>
       <c r="G55">
-        <v>10.2272</v>
+        <v>17.4709</v>
       </c>
       <c r="H55">
-        <v>3459.602429537337</v>
+        <v>7742.938867446202</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -3939,25 +3894,25 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C56">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E56" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F56">
-        <v>36.8511</v>
+        <v>38.7813</v>
       </c>
       <c r="G56">
-        <v>10.2272</v>
+        <v>-9.13592</v>
       </c>
       <c r="H56">
-        <v>3459.598799005875</v>
+        <v>4986.926296461013</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -3968,22 +3923,25 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C57">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F57">
-        <v>-22.4799</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G57">
-        <v>17.4709</v>
+        <v>-13.612</v>
       </c>
       <c r="H57">
-        <v>7742.938867446202</v>
+        <v>7102.33592038028</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -3991,28 +3949,28 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C58">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E58" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F58">
-        <v>38.7813</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G58">
-        <v>-9.13592</v>
+        <v>-13.612</v>
       </c>
       <c r="H58">
-        <v>4986.926296461013</v>
+        <v>7102.33592038028</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -4020,28 +3978,28 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C59">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E59" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F59">
-        <v>9.576890000000001</v>
+        <v>12.3532</v>
       </c>
       <c r="G59">
-        <v>-13.612</v>
+        <v>-1.51242</v>
       </c>
       <c r="H59">
-        <v>7102.33592038028</v>
+        <v>5902.667753492562</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -4052,25 +4010,25 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C60">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E60" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F60">
-        <v>9.576890000000001</v>
+        <v>6.23379</v>
       </c>
       <c r="G60">
-        <v>-13.612</v>
+        <v>-10.3623</v>
       </c>
       <c r="H60">
-        <v>7102.33592038028</v>
+        <v>7077.66900611551</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -4081,25 +4039,25 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C61">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="D61" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E61" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F61">
-        <v>12.3532</v>
+        <v>-12.0219</v>
       </c>
       <c r="G61">
-        <v>-1.51242</v>
+        <v>-77.1143</v>
       </c>
       <c r="H61">
-        <v>5902.667753492562</v>
+        <v>13990.74545278058</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -4110,25 +4068,25 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C62">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E62" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F62">
-        <v>6.23379</v>
+        <v>-18.7969</v>
       </c>
       <c r="G62">
-        <v>-10.3623</v>
+        <v>47.4788</v>
       </c>
       <c r="H62">
-        <v>7077.66900611551</v>
+        <v>6566.025374307382</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -4139,25 +4097,25 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C63">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E63" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="F63">
-        <v>-12.0219</v>
+        <v>8.616440000000001</v>
       </c>
       <c r="G63">
-        <v>-77.1143</v>
+        <v>-13.1955</v>
       </c>
       <c r="H63">
-        <v>13990.74545278058</v>
+        <v>7136.829725495315</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -4168,25 +4126,25 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C64">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E64" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F64">
-        <v>-18.7969</v>
+        <v>-24.5552</v>
       </c>
       <c r="G64">
-        <v>47.4788</v>
+        <v>25.9182</v>
       </c>
       <c r="H64">
-        <v>6566.025374307382</v>
+        <v>7619.993521726097</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -4197,25 +4155,25 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C65">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E65" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F65">
-        <v>8.616440000000001</v>
+        <v>0.458611</v>
       </c>
       <c r="G65">
-        <v>-13.1955</v>
+        <v>9.41222</v>
       </c>
       <c r="H65">
-        <v>7136.829725495315</v>
+        <v>6037.103426995995</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -4223,28 +4181,28 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C66">
         <v>192</v>
       </c>
       <c r="D66" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E66" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F66">
-        <v>-24.5552</v>
+        <v>0.4586</v>
       </c>
       <c r="G66">
-        <v>25.9182</v>
+        <v>9.412280000000001</v>
       </c>
       <c r="H66">
-        <v>7619.993521726097</v>
+        <v>6037.100303858566</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -4252,28 +4210,28 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C67">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E67" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F67">
-        <v>0.458611</v>
+        <v>3.75527</v>
       </c>
       <c r="G67">
-        <v>9.41222</v>
+        <v>8.70872</v>
       </c>
       <c r="H67">
-        <v>6037.103426995995</v>
+        <v>5801.31487623492</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -4284,25 +4242,25 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C68">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E68" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F68">
-        <v>0.4586</v>
+        <v>50.4019</v>
       </c>
       <c r="G68">
-        <v>9.412280000000001</v>
+        <v>30.4519</v>
       </c>
       <c r="H68">
-        <v>6037.100303858566</v>
+        <v>1879.923760061787</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -4313,25 +4271,25 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C69">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E69" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F69">
-        <v>3.75527</v>
+        <v>-34.5589</v>
       </c>
       <c r="G69">
-        <v>8.70872</v>
+        <v>-58.4164</v>
       </c>
       <c r="H69">
-        <v>5801.31487623492</v>
+        <v>13837.22431825091</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -4342,25 +4300,25 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C70">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E70" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F70">
-        <v>50.4019</v>
+        <v>-3.32402</v>
       </c>
       <c r="G70">
-        <v>30.4519</v>
+        <v>29.3185</v>
       </c>
       <c r="H70">
-        <v>1879.923760061787</v>
+        <v>5289.276838257844</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -4371,25 +4329,25 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C71">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E71" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F71">
-        <v>-34.5589</v>
+        <v>-25.9208</v>
       </c>
       <c r="G71">
-        <v>-58.4164</v>
+        <v>32.5726</v>
       </c>
       <c r="H71">
-        <v>13837.22431825091</v>
+        <v>7569.040528935894</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -4400,25 +4358,25 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C72">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E72" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F72">
-        <v>-3.32402</v>
+        <v>7.36731</v>
       </c>
       <c r="G72">
-        <v>29.3185</v>
+        <v>134.544</v>
       </c>
       <c r="H72">
-        <v>5289.276838257844</v>
+        <v>9019.26578310243</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -4429,25 +4387,25 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C73">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E73" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F73">
-        <v>-25.9208</v>
+        <v>33.8209</v>
       </c>
       <c r="G73">
-        <v>32.5726</v>
+        <v>35.4884</v>
       </c>
       <c r="H73">
-        <v>7569.040528935894</v>
+        <v>1486.139770534166</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -4458,25 +4416,25 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C74">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E74" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F74">
-        <v>7.36731</v>
+        <v>4.87201</v>
       </c>
       <c r="G74">
-        <v>134.544</v>
+        <v>31.6011</v>
       </c>
       <c r="H74">
-        <v>9019.26578310243</v>
+        <v>4353.718112374176</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -4487,25 +4445,25 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C75">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E75" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="F75">
-        <v>33.8209</v>
+        <v>3.83604</v>
       </c>
       <c r="G75">
-        <v>35.4884</v>
+        <v>11.5235</v>
       </c>
       <c r="H75">
-        <v>1486.139770534166</v>
+        <v>5598.149117338648</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -4516,25 +4474,25 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C76">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E76" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F76">
-        <v>4.87201</v>
+        <v>15.4763</v>
       </c>
       <c r="G76">
-        <v>31.6011</v>
+        <v>44.2197</v>
       </c>
       <c r="H76">
-        <v>4353.718112374176</v>
+        <v>2826.730738246394</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -4542,28 +4500,28 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C77">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E77" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F77">
-        <v>3.83604</v>
+        <v>15.4764</v>
       </c>
       <c r="G77">
-        <v>11.5235</v>
+        <v>44.2197</v>
       </c>
       <c r="H77">
-        <v>5598.149117338648</v>
+        <v>2826.719854434778</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -4571,28 +4529,28 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E78" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F78">
-        <v>15.4763</v>
+        <v>32.6635</v>
       </c>
       <c r="G78">
-        <v>44.2197</v>
+        <v>13.159</v>
       </c>
       <c r="H78">
-        <v>2826.730738246394</v>
+        <v>3387.002742127981</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -4603,25 +4561,25 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="D79" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E79" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F79">
-        <v>15.4764</v>
+        <v>52.1657</v>
       </c>
       <c r="G79">
-        <v>44.2197</v>
+        <v>20.9671</v>
       </c>
       <c r="H79">
-        <v>2826.719854434778</v>
+        <v>2564.300516993309</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -4632,25 +4590,25 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C80">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E80" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F80">
-        <v>32.6635</v>
+        <v>59.4133</v>
       </c>
       <c r="G80">
-        <v>13.159</v>
+        <v>24.8328</v>
       </c>
       <c r="H80">
-        <v>3387.002742127981</v>
+        <v>2743.743782369071</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -4661,25 +4619,25 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C81">
-        <v>351</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E81" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F81">
-        <v>52.1657</v>
+        <v>12.5335</v>
       </c>
       <c r="G81">
-        <v>20.9671</v>
+        <v>-7.94994</v>
       </c>
       <c r="H81">
-        <v>2564.300516993309</v>
+        <v>6419.025436044747</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -4687,28 +4645,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="C82">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="E82" t="s">
-        <v>563</v>
+        <v>489</v>
       </c>
       <c r="F82">
-        <v>59.4133</v>
+        <v>41.8003</v>
       </c>
       <c r="G82">
-        <v>24.8328</v>
+        <v>12.2389</v>
       </c>
       <c r="H82">
-        <v>2743.743782369071</v>
+        <v>3152.269441339329</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -4716,28 +4674,28 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C83">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E83" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="F83">
-        <v>12.5335</v>
+        <v>14.0609</v>
       </c>
       <c r="G83">
-        <v>-7.94994</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="H83">
-        <v>6419.025436044747</v>
+        <v>12537.52984160505</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -4745,28 +4703,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="E84" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="F84">
-        <v>41.8003</v>
+        <v>14.0617</v>
       </c>
       <c r="G84">
-        <v>12.2389</v>
+        <v>-87.2169</v>
       </c>
       <c r="H84">
-        <v>3152.269441339329</v>
+        <v>12537.43833066816</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -4774,28 +4732,28 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C85">
-        <v>148</v>
+        <v>566</v>
       </c>
       <c r="D85" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E85" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F85">
-        <v>14.0609</v>
+        <v>19.4363</v>
       </c>
       <c r="G85">
-        <v>-87.21720000000001</v>
+        <v>-99.07210000000001</v>
       </c>
       <c r="H85">
-        <v>12537.52984160505</v>
+        <v>12646.47826831417</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -4806,25 +4764,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C86">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="D86" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E86" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F86">
-        <v>14.0617</v>
+        <v>53.4213</v>
       </c>
       <c r="G86">
-        <v>-87.2169</v>
+        <v>-6.27007</v>
       </c>
       <c r="H86">
-        <v>12537.43833066816</v>
+        <v>4393.399565911067</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4835,25 +4793,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C87">
-        <v>566</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E87" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F87">
-        <v>19.4363</v>
+        <v>13.4815</v>
       </c>
       <c r="G87">
-        <v>-99.07210000000001</v>
+        <v>2.18361</v>
       </c>
       <c r="H87">
-        <v>12646.47826831417</v>
+        <v>5520.715204174199</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4864,25 +4822,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C88">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E88" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F88">
-        <v>53.4213</v>
+        <v>-18.0433</v>
       </c>
       <c r="G88">
-        <v>-6.27007</v>
+        <v>178.559</v>
       </c>
       <c r="H88">
-        <v>4393.399565911067</v>
+        <v>14530.46437430445</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4893,25 +4851,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C89">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E89" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F89">
-        <v>13.4815</v>
+        <v>-41.3272</v>
       </c>
       <c r="G89">
-        <v>2.18361</v>
+        <v>174.805</v>
       </c>
       <c r="H89">
-        <v>5520.715204174199</v>
+        <v>15446.46103889009</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -4922,25 +4880,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C90">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E90" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F90">
-        <v>-18.0433</v>
+        <v>43.0613</v>
       </c>
       <c r="G90">
-        <v>178.559</v>
+        <v>74.4776</v>
       </c>
       <c r="H90">
-        <v>14530.46437430445</v>
+        <v>2044.485107540601</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -4951,25 +4909,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C91">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E91" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F91">
-        <v>-41.3272</v>
+        <v>47.8431</v>
       </c>
       <c r="G91">
-        <v>174.805</v>
+        <v>106.767</v>
       </c>
       <c r="H91">
-        <v>15446.46103889009</v>
+        <v>4506.384660253061</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -4980,25 +4938,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C92">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E92" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F92">
-        <v>43.0613</v>
+        <v>-4.67434</v>
       </c>
       <c r="G92">
-        <v>74.4776</v>
+        <v>55.5218</v>
       </c>
       <c r="H92">
-        <v>2044.485107540601</v>
+        <v>5029.555575092861</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -5009,25 +4967,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C93">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E93" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F93">
-        <v>47.8431</v>
+        <v>38.5433</v>
       </c>
       <c r="G93">
-        <v>106.767</v>
+        <v>68.825</v>
       </c>
       <c r="H93">
-        <v>4506.384660253061</v>
+        <v>1625.982403853839</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -5038,25 +4996,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C94">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E94" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F94">
-        <v>-4.67434</v>
+        <v>4.39848</v>
       </c>
       <c r="G94">
-        <v>55.5218</v>
+        <v>18.5188</v>
       </c>
       <c r="H94">
-        <v>5029.555575092861</v>
+        <v>5091.020765053238</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -5067,25 +5025,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C95">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E95" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F95">
-        <v>38.5433</v>
+        <v>-9.443379999999999</v>
       </c>
       <c r="G95">
-        <v>68.825</v>
+        <v>147.22</v>
       </c>
       <c r="H95">
-        <v>1625.982403853839</v>
+        <v>11292.32900487144</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -5096,25 +5054,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C96">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D96" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E96" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F96">
-        <v>4.39848</v>
+        <v>-0.129167</v>
       </c>
       <c r="G96">
-        <v>18.5188</v>
+        <v>-78.3575</v>
       </c>
       <c r="H96">
-        <v>5091.020765053238</v>
+        <v>13164.10872689812</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -5125,25 +5083,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C97">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E97" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F97">
-        <v>-9.443379999999999</v>
+        <v>48.1103</v>
       </c>
       <c r="G97">
-        <v>147.22</v>
+        <v>16.5697</v>
       </c>
       <c r="H97">
-        <v>11292.32900487144</v>
+        <v>2778.447666312902</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -5154,25 +5112,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C98">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F98">
-        <v>-0.129167</v>
+        <v>18.4297</v>
       </c>
       <c r="G98">
-        <v>-78.3575</v>
+        <v>-69.66889999999999</v>
       </c>
       <c r="H98">
-        <v>13164.10872689812</v>
+        <v>11000.69163148572</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -5183,25 +5141,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C99">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E99" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F99">
-        <v>48.1103</v>
+        <v>11.5466</v>
       </c>
       <c r="G99">
-        <v>16.5697</v>
+        <v>104.844</v>
       </c>
       <c r="H99">
-        <v>2778.447666312902</v>
+        <v>6226.043105261343</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -5212,25 +5170,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C100">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="D100" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E100" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F100">
-        <v>18.4297</v>
+        <v>22.9892</v>
       </c>
       <c r="G100">
-        <v>-69.66889999999999</v>
+        <v>-82.4091</v>
       </c>
       <c r="H100">
-        <v>11000.69163148572</v>
+        <v>11435.78307555429</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -5241,25 +5199,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C101">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="D101" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E101" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F101">
-        <v>11.5466</v>
+        <v>44.5711</v>
       </c>
       <c r="G101">
-        <v>104.844</v>
+        <v>26.085</v>
       </c>
       <c r="H101">
-        <v>6226.043105261343</v>
+        <v>2013.208129015727</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -5270,25 +5228,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C102">
-        <v>296</v>
+        <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E102" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F102">
-        <v>22.9892</v>
+        <v>27.4032</v>
       </c>
       <c r="G102">
-        <v>-82.4091</v>
+        <v>89.4246</v>
       </c>
       <c r="H102">
-        <v>11435.78307555429</v>
+        <v>3879.516413069575</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -5299,25 +5257,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C103">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F103">
-        <v>44.5711</v>
+        <v>-11.5337</v>
       </c>
       <c r="G103">
-        <v>26.085</v>
+        <v>43.2719</v>
       </c>
       <c r="H103">
-        <v>2013.208129015727</v>
+        <v>5799.222535764622</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -5328,25 +5286,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C104">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E104" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F104">
-        <v>27.4032</v>
+        <v>37.9868</v>
       </c>
       <c r="G104">
-        <v>89.4246</v>
+        <v>58.361</v>
       </c>
       <c r="H104">
-        <v>3879.516413069575</v>
+        <v>768.5490267240244</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -5357,25 +5315,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C105">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E105" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F105">
-        <v>-11.5337</v>
+        <v>-17.6993</v>
       </c>
       <c r="G105">
-        <v>43.2719</v>
+        <v>168.32</v>
       </c>
       <c r="H105">
-        <v>5799.222535764622</v>
+        <v>13647.64468406507</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -5386,25 +5344,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C106">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F106">
-        <v>37.9868</v>
+        <v>-25.24</v>
       </c>
       <c r="G106">
-        <v>58.361</v>
+        <v>-57.52</v>
       </c>
       <c r="H106">
-        <v>768.5490267240244</v>
+        <v>13225.08775047198</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -5415,25 +5373,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C107">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E107" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F107">
-        <v>-17.6993</v>
+        <v>9.07136</v>
       </c>
       <c r="G107">
-        <v>168.32</v>
+        <v>-79.3835</v>
       </c>
       <c r="H107">
-        <v>13647.64468406507</v>
+        <v>12469.44498750842</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -5444,25 +5402,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C108">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E108" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F108">
-        <v>-25.24</v>
+        <v>14.5833</v>
       </c>
       <c r="G108">
-        <v>-57.52</v>
+        <v>-90.5275</v>
       </c>
       <c r="H108">
-        <v>13225.08775047198</v>
+        <v>12683.1295028598</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -5470,28 +5428,28 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C109">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E109" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F109">
-        <v>9.07136</v>
+        <v>14.5817</v>
       </c>
       <c r="G109">
-        <v>-79.3835</v>
+        <v>-90.52670000000001</v>
       </c>
       <c r="H109">
-        <v>12469.44498750842</v>
+        <v>12683.23434428287</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -5499,28 +5457,28 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C110">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E110" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="F110">
-        <v>14.5833</v>
+        <v>63.985</v>
       </c>
       <c r="G110">
-        <v>-90.5275</v>
+        <v>-22.6056</v>
       </c>
       <c r="H110">
-        <v>12683.1295028598</v>
+        <v>5232.736608647256</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -5531,25 +5489,25 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C111">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D111" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E111" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F111">
-        <v>14.5817</v>
+        <v>40.1473</v>
       </c>
       <c r="G111">
-        <v>-90.52670000000001</v>
+        <v>44.3959</v>
       </c>
       <c r="H111">
-        <v>12683.23434428287</v>
+        <v>481.6035587525596</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -5560,25 +5518,25 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C112">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D112" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E112" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F112">
-        <v>63.985</v>
+        <v>4.9442</v>
       </c>
       <c r="G112">
-        <v>-22.6056</v>
+        <v>114.928</v>
       </c>
       <c r="H112">
-        <v>5232.736608647256</v>
+        <v>7541.163940878577</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -5589,25 +5547,25 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C113">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D113" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E113" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F113">
-        <v>40.1473</v>
+        <v>13.0746</v>
       </c>
       <c r="G113">
-        <v>44.3959</v>
+        <v>-59.4925</v>
       </c>
       <c r="H113">
-        <v>481.6035587525596</v>
+        <v>10666.15473070112</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -5618,25 +5576,25 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C114">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D114" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E114" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F114">
-        <v>4.9442</v>
+        <v>-21.2412</v>
       </c>
       <c r="G114">
-        <v>114.928</v>
+        <v>-175.15</v>
       </c>
       <c r="H114">
-        <v>7541.163940878577</v>
+        <v>15268.68953206414</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -5647,25 +5605,25 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C115">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D115" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E115" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F115">
-        <v>13.0746</v>
+        <v>11.5473</v>
       </c>
       <c r="G115">
-        <v>-59.4925</v>
+        <v>43.1595</v>
       </c>
       <c r="H115">
-        <v>10666.15473070112</v>
+        <v>3275.085134114309</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -5676,25 +5634,25 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C116">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E116" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F116">
-        <v>-21.2412</v>
+        <v>25.039</v>
       </c>
       <c r="G116">
-        <v>-175.15</v>
+        <v>-77.4662</v>
       </c>
       <c r="H116">
-        <v>15268.68953206414</v>
+        <v>10955.00207119055</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -5705,25 +5663,25 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C117">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D117" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E117" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F117">
-        <v>11.5473</v>
+        <v>1.98616</v>
       </c>
       <c r="G117">
-        <v>43.1595</v>
+        <v>-157.35</v>
       </c>
       <c r="H117">
-        <v>3275.085134114309</v>
+        <v>14547.61178562013</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -5734,25 +5692,25 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C118">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D118" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E118" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F118">
-        <v>25.039</v>
+        <v>4.19183</v>
       </c>
       <c r="G118">
-        <v>-77.4662</v>
+        <v>73.5291</v>
       </c>
       <c r="H118">
-        <v>10955.00207119055</v>
+        <v>4656.658422636099</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -5763,25 +5721,25 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C119">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="D119" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E119" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F119">
-        <v>35.6892</v>
+        <v>-8.5464</v>
       </c>
       <c r="G119">
-        <v>51.3134</v>
+        <v>125.526</v>
       </c>
       <c r="H119">
-        <v>541.8824184898115</v>
+        <v>9415.145558209191</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -5792,25 +5750,25 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C120">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D120" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="E120" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F120">
-        <v>1.98616</v>
+        <v>44.0203</v>
       </c>
       <c r="G120">
-        <v>-157.35</v>
+        <v>12.6117</v>
       </c>
       <c r="H120">
-        <v>14547.61178562013</v>
+        <v>3087.865340030621</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -5821,25 +5779,25 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C121">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E121" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F121">
-        <v>4.19183</v>
+        <v>50.1008</v>
       </c>
       <c r="G121">
-        <v>73.5291</v>
+        <v>14.26</v>
       </c>
       <c r="H121">
-        <v>4656.658422636099</v>
+        <v>2970.336201604316</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -5850,25 +5808,25 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C122">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E122" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F122">
-        <v>-8.5464</v>
+        <v>-26.529</v>
       </c>
       <c r="G122">
-        <v>125.526</v>
+        <v>31.3075</v>
       </c>
       <c r="H122">
-        <v>9415.145558209191</v>
+        <v>7666.425543112208</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -5879,25 +5837,25 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C123">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D123" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="E123" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F123">
-        <v>44.0203</v>
+        <v>17.5391</v>
       </c>
       <c r="G123">
-        <v>12.6117</v>
+        <v>-88.3082</v>
       </c>
       <c r="H123">
-        <v>3087.865340030621</v>
+        <v>12279.82129489905</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -5908,25 +5866,25 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C124">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E124" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F124">
-        <v>50.1008</v>
+        <v>-20.4302</v>
       </c>
       <c r="G124">
-        <v>14.26</v>
+        <v>57.6836</v>
       </c>
       <c r="H124">
-        <v>2970.336201604316</v>
+        <v>6787.787464595911</v>
       </c>
       <c r="I124" t="b">
         <v>0</v>
@@ -5937,25 +5895,25 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C125">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D125" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E125" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F125">
-        <v>-26.529</v>
+        <v>46.2237</v>
       </c>
       <c r="G125">
-        <v>31.3075</v>
+        <v>14.4576</v>
       </c>
       <c r="H125">
-        <v>7666.425543112208</v>
+        <v>2929.552751889024</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -5966,25 +5924,25 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C126">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D126" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E126" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F126">
-        <v>17.5391</v>
+        <v>-9.428000000000001</v>
       </c>
       <c r="G126">
-        <v>-88.3082</v>
+        <v>160.055</v>
       </c>
       <c r="H126">
-        <v>12279.82129489905</v>
+        <v>12378.28373226157</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
@@ -5995,25 +5953,25 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D127" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E127" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F127">
-        <v>-20.4302</v>
+        <v>-8.525</v>
       </c>
       <c r="G127">
-        <v>57.6836</v>
+        <v>179.196</v>
       </c>
       <c r="H127">
-        <v>6787.787464595911</v>
+        <v>13887.43257633484</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -6024,25 +5982,25 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C128">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E128" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F128">
-        <v>46.2237</v>
+        <v>-13.83</v>
       </c>
       <c r="G128">
-        <v>14.4576</v>
+        <v>-172.008</v>
       </c>
       <c r="H128">
-        <v>2929.552751889024</v>
+        <v>14985.24548238516</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
@@ -6053,25 +6011,25 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C129">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="D129" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E129" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F129">
-        <v>-9.428000000000001</v>
+        <v>47.4647</v>
       </c>
       <c r="G129">
-        <v>160.055</v>
+        <v>8.54917</v>
       </c>
       <c r="H129">
-        <v>12378.28373226157</v>
+        <v>3377.098281989446</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -6082,25 +6040,25 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C130">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E130" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F130">
-        <v>-8.525</v>
+        <v>-29.4623</v>
       </c>
       <c r="G130">
-        <v>179.196</v>
+        <v>27.5525</v>
       </c>
       <c r="H130">
-        <v>13887.43257633484</v>
+        <v>8083.07234933267</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -6111,25 +6069,25 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C131">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E131" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F131">
-        <v>-13.83</v>
+        <v>17.3112</v>
       </c>
       <c r="G131">
-        <v>-172.008</v>
+        <v>-62.7187</v>
       </c>
       <c r="H131">
-        <v>14985.24548238516</v>
+        <v>10584.47629627405</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
@@ -6137,28 +6095,28 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C132">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E132" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F132">
-        <v>47.4647</v>
+        <v>17.3114</v>
       </c>
       <c r="G132">
-        <v>8.54917</v>
+        <v>-62.7186</v>
       </c>
       <c r="H132">
-        <v>3377.098281989446</v>
+        <v>10584.45309639349</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
@@ -6166,28 +6124,28 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C133">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D133" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E133" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F133">
-        <v>-29.4623</v>
+        <v>35.8575</v>
       </c>
       <c r="G133">
-        <v>27.5525</v>
+        <v>14.4775</v>
       </c>
       <c r="H133">
-        <v>8083.07234933267</v>
+        <v>3137.273813529072</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
@@ -6195,28 +6153,28 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C134">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D134" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E134" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F134">
-        <v>17.3112</v>
+        <v>-16.5133</v>
       </c>
       <c r="G134">
-        <v>-62.7187</v>
+        <v>-68.1923</v>
       </c>
       <c r="H134">
-        <v>10584.47629627405</v>
+        <v>13564.94072754159</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
@@ -6227,25 +6185,25 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C135">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D135" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E135" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F135">
-        <v>17.3114</v>
+        <v>43.8246</v>
       </c>
       <c r="G135">
-        <v>-62.7186</v>
+        <v>18.3315</v>
       </c>
       <c r="H135">
-        <v>10584.45309639349</v>
+        <v>2631.558381456218</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
@@ -6256,25 +6214,25 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C136">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D136" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E136" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F136">
-        <v>35.8575</v>
+        <v>35.1547</v>
       </c>
       <c r="G136">
-        <v>14.4775</v>
+        <v>33.4961</v>
       </c>
       <c r="H136">
-        <v>3137.273813529072</v>
+        <v>1569.041044104477</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
@@ -6285,25 +6243,25 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C137">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D137" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E137" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F137">
-        <v>-16.5133</v>
+        <v>15.5895</v>
       </c>
       <c r="G137">
-        <v>-68.1923</v>
+        <v>32.5532</v>
       </c>
       <c r="H137">
-        <v>13564.94072754159</v>
+        <v>3235.656333794267</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
@@ -6314,25 +6272,25 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C138">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E138" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F138">
-        <v>43.8246</v>
+        <v>9.99386</v>
       </c>
       <c r="G138">
-        <v>18.3315</v>
+        <v>-84.2088</v>
       </c>
       <c r="H138">
-        <v>2631.558381456218</v>
+        <v>12715.29767983518</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
@@ -6343,25 +6301,25 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C139">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="E139" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F139">
-        <v>35.1547</v>
+        <v>46.9744</v>
       </c>
       <c r="G139">
-        <v>33.4961</v>
+        <v>8.396940000000001</v>
       </c>
       <c r="H139">
-        <v>1569.041044104477</v>
+        <v>3391.146246230579</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -6372,25 +6330,25 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C140">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D140" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E140" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F140">
-        <v>15.5895</v>
+        <v>41.4147</v>
       </c>
       <c r="G140">
-        <v>32.5532</v>
+        <v>19.7206</v>
       </c>
       <c r="H140">
-        <v>3235.656333794267</v>
+        <v>2542.855267595733</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -6401,25 +6359,25 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C141">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E141" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F141">
-        <v>9.99386</v>
+        <v>18.58</v>
       </c>
       <c r="G141">
-        <v>-84.2088</v>
+        <v>-72.2925</v>
       </c>
       <c r="H141">
-        <v>12715.29767983518</v>
+        <v>11171.32667664369</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -6427,28 +6385,28 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C142">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D142" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E142" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F142">
-        <v>46.9744</v>
+        <v>18.58</v>
       </c>
       <c r="G142">
-        <v>8.396940000000001</v>
+        <v>-72.2925</v>
       </c>
       <c r="H142">
-        <v>3391.146246230579</v>
+        <v>11171.32667664369</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
@@ -6456,28 +6414,28 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C143">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D143" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="E143" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F143">
-        <v>41.4147</v>
+        <v>17.9357</v>
       </c>
       <c r="G143">
-        <v>19.7206</v>
+        <v>-76.78749999999999</v>
       </c>
       <c r="H143">
-        <v>2542.855267595733</v>
+        <v>11530.28267312664</v>
       </c>
       <c r="I143" t="b">
         <v>0</v>
@@ -6485,28 +6443,28 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C144">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E144" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F144">
-        <v>18.58</v>
+        <v>17.9883</v>
       </c>
       <c r="G144">
-        <v>-72.2925</v>
+        <v>102.563</v>
       </c>
       <c r="H144">
-        <v>11171.32667664369</v>
+        <v>5581.640567208428</v>
       </c>
       <c r="I144" t="b">
         <v>0</v>
@@ -6517,25 +6475,25 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C145">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E145" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F145">
-        <v>18.58</v>
+        <v>17.1367</v>
       </c>
       <c r="G145">
-        <v>-72.2925</v>
+        <v>-61.7927</v>
       </c>
       <c r="H145">
-        <v>11171.32667664369</v>
+        <v>10528.56491644158</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -6546,25 +6504,25 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C146">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D146" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E146" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F146">
-        <v>17.9357</v>
+        <v>12.0042</v>
       </c>
       <c r="G146">
-        <v>-76.78749999999999</v>
+        <v>-61.7862</v>
       </c>
       <c r="H146">
-        <v>11530.28267312664</v>
+        <v>10927.46952255431</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -6575,25 +6533,25 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C147">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D147" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E147" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="F147">
-        <v>17.9883</v>
+        <v>54.6341</v>
       </c>
       <c r="G147">
-        <v>102.563</v>
+        <v>25.2858</v>
       </c>
       <c r="H147">
-        <v>5581.640567208428</v>
+        <v>2417.328875291876</v>
       </c>
       <c r="I147" t="b">
         <v>0</v>
@@ -6604,25 +6562,25 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C148">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E148" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F148">
-        <v>17.1367</v>
+        <v>0.378175</v>
       </c>
       <c r="G148">
-        <v>-61.7927</v>
+        <v>6.71215</v>
       </c>
       <c r="H148">
-        <v>10528.56491644158</v>
+        <v>6230.880819399036</v>
       </c>
       <c r="I148" t="b">
         <v>0</v>
@@ -6633,25 +6591,25 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C149">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E149" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F149">
-        <v>12.0042</v>
+        <v>14.0202</v>
       </c>
       <c r="G149">
-        <v>-61.7862</v>
+        <v>-60.9929</v>
       </c>
       <c r="H149">
-        <v>10927.46952255431</v>
+        <v>10709.87427859931</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -6662,25 +6620,25 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C150">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D150" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E150" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F150">
-        <v>54.6341</v>
+        <v>-34.8384</v>
       </c>
       <c r="G150">
-        <v>25.2858</v>
+        <v>-56.0308</v>
       </c>
       <c r="H150">
-        <v>2417.328875291876</v>
+        <v>13661.08269022385</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -6691,25 +6649,25 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C151">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E151" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F151">
-        <v>0.378175</v>
+        <v>10.6012</v>
       </c>
       <c r="G151">
-        <v>6.71215</v>
+        <v>-66.99120000000001</v>
       </c>
       <c r="H151">
-        <v>6230.880819399036</v>
+        <v>11437.90117955731</v>
       </c>
       <c r="I151" t="b">
         <v>0</v>
@@ -6717,28 +6675,28 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E152" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F152">
-        <v>14.0202</v>
+        <v>10.6012</v>
       </c>
       <c r="G152">
-        <v>-60.9929</v>
+        <v>-66.99120000000001</v>
       </c>
       <c r="H152">
-        <v>10709.87427859931</v>
+        <v>11437.90117955731</v>
       </c>
       <c r="I152" t="b">
         <v>0</v>
@@ -6746,28 +6704,28 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C153">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D153" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E153" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F153">
-        <v>-34.8384</v>
+        <v>5.45283</v>
       </c>
       <c r="G153">
-        <v>-56.0308</v>
+        <v>-55.1878</v>
       </c>
       <c r="H153">
-        <v>13661.08269022385</v>
+        <v>10895.0408016643</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -6775,28 +6733,28 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E154" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F154">
-        <v>10.6012</v>
+        <v>15.547</v>
       </c>
       <c r="G154">
-        <v>-66.99120000000001</v>
+        <v>-61.3</v>
       </c>
       <c r="H154">
-        <v>11437.90117955731</v>
+        <v>10615.0246988029</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
@@ -6807,25 +6765,25 @@
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C155">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="E155" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F155">
-        <v>10.6012</v>
+        <v>24.0633</v>
       </c>
       <c r="G155">
-        <v>-66.99120000000001</v>
+        <v>-74.524</v>
       </c>
       <c r="H155">
-        <v>11437.90117955731</v>
+        <v>10854.69817417169</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -6836,25 +6794,25 @@
         <v>150</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C156">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D156" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E156" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F156">
-        <v>5.45283</v>
+        <v>41.9616</v>
       </c>
       <c r="G156">
-        <v>-55.1878</v>
+        <v>21.6214</v>
       </c>
       <c r="H156">
-        <v>10895.0408016643</v>
+        <v>2378.618165262986</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -6865,25 +6823,25 @@
         <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E157" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F157">
-        <v>15.547</v>
+        <v>14.9245</v>
       </c>
       <c r="G157">
-        <v>-61.3</v>
+        <v>-23.4935</v>
       </c>
       <c r="H157">
-        <v>10615.0246988029</v>
+        <v>7563.892895595907</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -6894,25 +6852,25 @@
         <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C158">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="E158" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F158">
-        <v>24.0633</v>
+        <v>6.9851</v>
       </c>
       <c r="G158">
-        <v>-74.524</v>
+        <v>158.209</v>
       </c>
       <c r="H158">
-        <v>10854.69817417169</v>
+        <v>11019.37796498883</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -6923,25 +6881,25 @@
         <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C159">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="E159" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F159">
-        <v>43.6584</v>
+        <v>-19.079</v>
       </c>
       <c r="G159">
-        <v>7.21587</v>
+        <v>-169.926</v>
       </c>
       <c r="H159">
-        <v>3523.251517587449</v>
+        <v>15542.19042979375</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
@@ -6952,25 +6910,25 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C160">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E160" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F160">
-        <v>41.9616</v>
+        <v>42.3594</v>
       </c>
       <c r="G160">
-        <v>21.6214</v>
+        <v>19.2519</v>
       </c>
       <c r="H160">
-        <v>2378.618165262986</v>
+        <v>2569.120843809226</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -6981,25 +6939,25 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C161">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E161" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F161">
-        <v>14.9245</v>
+        <v>-21.2027</v>
       </c>
       <c r="G161">
-        <v>-23.4935</v>
+        <v>-159.806</v>
       </c>
       <c r="H161">
-        <v>7563.892895595907</v>
+        <v>16482.25074721164</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
@@ -7010,25 +6968,25 @@
         <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C162">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E162" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F162">
-        <v>6.9851</v>
+        <v>-0.547458</v>
       </c>
       <c r="G162">
-        <v>158.209</v>
+        <v>166.919</v>
       </c>
       <c r="H162">
-        <v>11019.37796498883</v>
+        <v>12294.63516466345</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
@@ -7039,25 +6997,25 @@
         <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E163" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F163">
-        <v>-19.079</v>
+        <v>6.49855</v>
       </c>
       <c r="G163">
-        <v>-169.926</v>
+        <v>-58.2541</v>
       </c>
       <c r="H163">
-        <v>15542.19042979375</v>
+        <v>11067.22389624114</v>
       </c>
       <c r="I163" t="b">
         <v>0</v>
@@ -7068,25 +7026,25 @@
         <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C164">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E164" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="F164">
-        <v>42.3594</v>
+        <v>10.5954</v>
       </c>
       <c r="G164">
-        <v>19.2519</v>
+        <v>-61.3372</v>
       </c>
       <c r="H164">
-        <v>2569.120843809226</v>
+        <v>11001.28269930932</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -7097,25 +7055,25 @@
         <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E165" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F165">
-        <v>-21.2027</v>
+        <v>13.1443</v>
       </c>
       <c r="G165">
-        <v>-159.806</v>
+        <v>-61.2109</v>
       </c>
       <c r="H165">
-        <v>16482.25074721164</v>
+        <v>10794.53222984782</v>
       </c>
       <c r="I165" t="b">
         <v>0</v>
@@ -7126,25 +7084,25 @@
         <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C166">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="E166" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F166">
-        <v>-0.547458</v>
+        <v>42.3386</v>
       </c>
       <c r="G166">
-        <v>166.919</v>
+        <v>1.40917</v>
       </c>
       <c r="H166">
-        <v>12294.63516466345</v>
+        <v>4016.44817106769</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -7152,28 +7110,28 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C167">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>476</v>
+        <v>362</v>
       </c>
       <c r="E167" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F167">
-        <v>6.49855</v>
+        <v>42.3386</v>
       </c>
       <c r="G167">
-        <v>-58.2541</v>
+        <v>1.40917</v>
       </c>
       <c r="H167">
-        <v>11067.22389624114</v>
+        <v>4016.44817106769</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
@@ -7181,28 +7139,28 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B168" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="C168">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="E168" t="s">
-        <v>646</v>
+        <v>598</v>
       </c>
       <c r="F168">
-        <v>10.5954</v>
+        <v>47.4647</v>
       </c>
       <c r="G168">
-        <v>-61.3372</v>
+        <v>8.54917</v>
       </c>
       <c r="H168">
-        <v>11001.28269930932</v>
+        <v>3377.098281989446</v>
       </c>
       <c r="I168" t="b">
         <v>0</v>
@@ -7210,28 +7168,28 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C169">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E169" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F169">
-        <v>13.1443</v>
+        <v>46.9277</v>
       </c>
       <c r="G169">
-        <v>-61.2109</v>
+        <v>28.931</v>
       </c>
       <c r="H169">
-        <v>10794.53222984782</v>
+        <v>1839.94872940312</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
@@ -7239,28 +7197,28 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="E170" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="F170">
-        <v>42.3386</v>
+        <v>15.2919</v>
       </c>
       <c r="G170">
-        <v>1.40917</v>
+        <v>38.9107</v>
       </c>
       <c r="H170">
-        <v>4016.44817106769</v>
+        <v>2991.764563035157</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
@@ -7268,28 +7226,28 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="E171" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F171">
-        <v>42.3386</v>
+        <v>12.1415</v>
       </c>
       <c r="G171">
-        <v>1.40917</v>
+        <v>-86.1682</v>
       </c>
       <c r="H171">
-        <v>4016.44817106769</v>
+        <v>12648.10645661509</v>
       </c>
       <c r="I171" t="b">
         <v>0</v>
@@ -7297,146 +7255,30 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="E172" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="F172">
-        <v>47.4647</v>
+        <v>39.2241</v>
       </c>
       <c r="G172">
-        <v>8.54917</v>
+        <v>125.67</v>
       </c>
       <c r="H172">
-        <v>3377.098281989446</v>
+        <v>6261.231349544636</v>
       </c>
       <c r="I172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" t="s">
-        <v>165</v>
-      </c>
-      <c r="B173" t="s">
-        <v>325</v>
-      </c>
-      <c r="C173">
-        <v>12</v>
-      </c>
-      <c r="D173" t="s">
-        <v>479</v>
-      </c>
-      <c r="E173" t="s">
-        <v>650</v>
-      </c>
-      <c r="F173">
-        <v>46.9277</v>
-      </c>
-      <c r="G173">
-        <v>28.931</v>
-      </c>
-      <c r="H173">
-        <v>1839.94872940312</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" t="s">
-        <v>166</v>
-      </c>
-      <c r="B174" t="s">
-        <v>326</v>
-      </c>
-      <c r="C174">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>480</v>
-      </c>
-      <c r="E174" t="s">
-        <v>651</v>
-      </c>
-      <c r="F174">
-        <v>15.2919</v>
-      </c>
-      <c r="G174">
-        <v>38.9107</v>
-      </c>
-      <c r="H174">
-        <v>2991.764563035157</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" t="s">
-        <v>167</v>
-      </c>
-      <c r="B175" t="s">
-        <v>327</v>
-      </c>
-      <c r="C175">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s">
-        <v>481</v>
-      </c>
-      <c r="E175" t="s">
-        <v>652</v>
-      </c>
-      <c r="F175">
-        <v>12.1415</v>
-      </c>
-      <c r="G175">
-        <v>-86.1682</v>
-      </c>
-      <c r="H175">
-        <v>12648.10645661509</v>
-      </c>
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" t="s">
-        <v>168</v>
-      </c>
-      <c r="B176" t="s">
-        <v>328</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
-        <v>482</v>
-      </c>
-      <c r="E176" t="s">
-        <v>653</v>
-      </c>
-      <c r="F176">
-        <v>39.2241</v>
-      </c>
-      <c r="G176">
-        <v>125.67</v>
-      </c>
-      <c r="H176">
-        <v>6261.231349544636</v>
-      </c>
-      <c r="I176" t="b">
         <v>0</v>
       </c>
     </row>
